--- a/src/test/resources/test_Data/TestData.xlsx
+++ b/src/test/resources/test_Data/TestData.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rihab\Desktop\Formation Selenium\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name=" Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -40,12 +45,16 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -181,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,7 +367,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -369,12 +378,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -401,9 +410,12 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>